--- a/MakeMoreMoney_V1.xlsx
+++ b/MakeMoreMoney_V1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lzbqrr\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lzbqrr\Desktop\MakeMoreMoney\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F72C521-6091-447C-AA60-57B91FBDFD0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0A625E-8B25-44BB-9A72-06479A3E04EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17535" xr2:uid="{83293AED-B13B-44AE-BE71-2450F74312A8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>养老</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,14 +210,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>您的税后收入(不含年终奖)：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的税后收入(含年终奖)：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>另有公积金：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -228,6 +220,18 @@
   <si>
     <t>李展博 2021.10.29
 lzbqrr@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部收入(税后工资、年终、公积金)：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的税后工资收入(不含年终奖)：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的税后收入(工资+年终奖)：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -355,7 +359,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -640,13 +644,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -728,6 +794,72 @@
     <xf numFmtId="176" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -809,61 +941,49 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1180,19 +1300,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA74F41-F140-44CD-87C3-EBE0F5164B7E}">
-  <dimension ref="B1:U38"/>
+  <dimension ref="B1:U41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24:R24"/>
+      <selection activeCell="F35" sqref="F35:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="26" style="1" customWidth="1"/>
@@ -1211,58 +1331,58 @@
   <sheetData>
     <row r="1" spans="2:21" ht="21" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="60"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="43"/>
     </row>
     <row r="3" spans="2:21" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57" t="s">
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57" t="s">
+      <c r="K3" s="36"/>
+      <c r="L3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="56" t="s">
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="41" t="s">
         <v>36</v>
       </c>
       <c r="S3" s="2"/>
@@ -1270,10 +1390,10 @@
       <c r="U3" s="2"/>
     </row>
     <row r="4" spans="2:21" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="65"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="3" t="s">
         <v>17</v>
       </c>
@@ -1310,14 +1430,14 @@
       <c r="Q4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="56"/>
+      <c r="R4" s="41"/>
     </row>
     <row r="5" spans="2:21" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="C5" s="5">
-        <v>105000</v>
+        <v>94500</v>
       </c>
       <c r="D5" s="5">
         <v>28221</v>
@@ -1385,77 +1505,77 @@
       <c r="R6" s="22"/>
     </row>
     <row r="7" spans="2:21" ht="42.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="64"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="34"/>
     </row>
     <row r="8" spans="2:21" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="69" t="s">
+      <c r="E8" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69" t="s">
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="69" t="s">
+      <c r="I8" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="71" t="s">
+      <c r="J8" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="72" t="s">
+      <c r="K8" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="67" t="s">
+      <c r="L8" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="M8" s="66" t="s">
+      <c r="M8" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="66" t="s">
+      <c r="N8" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="67" t="s">
+      <c r="O8" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="P8" s="54" t="s">
+      <c r="P8" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="Q8" s="61" t="s">
+      <c r="Q8" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="62"/>
+      <c r="R8" s="45"/>
     </row>
     <row r="9" spans="2:21" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="70"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="8" t="s">
         <v>0</v>
       </c>
@@ -1465,17 +1585,17 @@
       <c r="G9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="62"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="45"/>
     </row>
     <row r="10" spans="2:21" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="15">
@@ -1483,31 +1603,31 @@
       </c>
       <c r="C10" s="14">
         <f>B5</f>
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="D10" s="14">
         <f>C10*B10</f>
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="E10" s="8">
         <f>MIN(C10,D5)*F5</f>
-        <v>2257.6799999999998</v>
+        <v>2160</v>
       </c>
       <c r="F10" s="8">
         <f>MIN(C10,D5)*G5+H5</f>
-        <v>564.41999999999996</v>
+        <v>540</v>
       </c>
       <c r="G10" s="8">
         <f>MIN(C10,D5)*I5</f>
-        <v>56.442</v>
+        <v>54</v>
       </c>
       <c r="H10" s="8">
         <f>MIN(C10,E5)*J5</f>
-        <v>3386.52</v>
+        <v>3240</v>
       </c>
       <c r="I10" s="8">
         <f>(E10+F10+G10+H10)*B10</f>
-        <v>6265.0619999999999</v>
+        <v>5994</v>
       </c>
       <c r="J10" s="9">
         <f>(L5+M5+N5+O5+P5+Q5)*B10</f>
@@ -1519,7 +1639,7 @@
       </c>
       <c r="L10" s="11">
         <f>D10-I10-J10-K10</f>
-        <v>16234.938000000002</v>
+        <v>13506</v>
       </c>
       <c r="M10" s="11">
         <f>IF(L10&lt;=0,0,IF(L10&lt;=36000,3%,IF(L10&lt;=144000,10%,IF(L10&lt;=300000,20%,IF(L10&lt;=420000,25%,IF(L10&lt;=660000,30%,IF(L10&lt;=960000,35%,45%)))))))</f>
@@ -1531,17 +1651,17 @@
       </c>
       <c r="O10" s="11">
         <f>L10*M10-N10</f>
-        <v>487.04814000000005</v>
+        <v>405.18</v>
       </c>
       <c r="P10" s="12">
         <f>C10-E10-F10-G10-H10-O10</f>
-        <v>23247.889860000003</v>
-      </c>
-      <c r="Q10" s="54">
+        <v>20600.82</v>
+      </c>
+      <c r="Q10" s="30">
         <f>P10+H10+MIN(B5, E5)*K5</f>
-        <v>30020.929860000004</v>
-      </c>
-      <c r="R10" s="55"/>
+        <v>27080.82</v>
+      </c>
+      <c r="R10" s="31"/>
     </row>
     <row r="11" spans="2:21" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="15">
@@ -1549,31 +1669,31 @@
       </c>
       <c r="C11" s="14">
         <f>B5</f>
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="D11" s="14">
         <f t="shared" ref="D11:D21" si="0">C11*B11</f>
-        <v>60000</v>
+        <v>54000</v>
       </c>
       <c r="E11" s="8">
         <f>MIN(C11,D5)*F5</f>
-        <v>2257.6799999999998</v>
+        <v>2160</v>
       </c>
       <c r="F11" s="8">
         <f>MIN(C11,D5)*G5+H5</f>
-        <v>564.41999999999996</v>
+        <v>540</v>
       </c>
       <c r="G11" s="8">
         <f>MIN(C11,D5)*I5</f>
-        <v>56.442</v>
+        <v>54</v>
       </c>
       <c r="H11" s="8">
         <f>MIN(C11,E5)*J5</f>
-        <v>3386.52</v>
+        <v>3240</v>
       </c>
       <c r="I11" s="8">
         <f t="shared" ref="I11:I21" si="1">(E11+F11+G11+H11)*B11</f>
-        <v>12530.124</v>
+        <v>11988</v>
       </c>
       <c r="J11" s="9">
         <f>(L5+M5+N5+O5+P5+Q5)*B11</f>
@@ -1585,7 +1705,7 @@
       </c>
       <c r="L11" s="11">
         <f t="shared" ref="L11:L21" si="2">D11-I11-J11-K11</f>
-        <v>32469.876000000004</v>
+        <v>27012</v>
       </c>
       <c r="M11" s="11">
         <f t="shared" ref="M11:M22" si="3">IF(L11&lt;=0,0,IF(L11&lt;=36000,3%,IF(L11&lt;=144000,10%,IF(L11&lt;=300000,20%,IF(L11&lt;=420000,25%,IF(L11&lt;=660000,30%,IF(L11&lt;=960000,35%,45%)))))))</f>
@@ -1597,17 +1717,17 @@
       </c>
       <c r="O11" s="11">
         <f>L11*M11-N11-O10</f>
-        <v>487.04814000000005</v>
+        <v>405.18</v>
       </c>
       <c r="P11" s="12">
         <f t="shared" ref="P11:P21" si="5">C11-E11-F11-G11-H11-O11</f>
-        <v>23247.889860000003</v>
-      </c>
-      <c r="Q11" s="54">
+        <v>20600.82</v>
+      </c>
+      <c r="Q11" s="30">
         <f>P11+H11+MIN(B5, E5)*K5</f>
-        <v>30020.929860000004</v>
-      </c>
-      <c r="R11" s="55"/>
+        <v>27080.82</v>
+      </c>
+      <c r="R11" s="31"/>
     </row>
     <row r="12" spans="2:21" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="15">
@@ -1615,31 +1735,31 @@
       </c>
       <c r="C12" s="14">
         <f>B5</f>
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="D12" s="14">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>81000</v>
       </c>
       <c r="E12" s="8">
         <f>MIN(C12,D5)*F5</f>
-        <v>2257.6799999999998</v>
+        <v>2160</v>
       </c>
       <c r="F12" s="8">
         <f>MIN(C12,D5)*G5+H5</f>
-        <v>564.41999999999996</v>
+        <v>540</v>
       </c>
       <c r="G12" s="8">
         <f>MIN(C12,D5)*I5</f>
-        <v>56.442</v>
+        <v>54</v>
       </c>
       <c r="H12" s="8">
         <f>MIN(C12,E5)*J5</f>
-        <v>3386.52</v>
+        <v>3240</v>
       </c>
       <c r="I12" s="8">
         <f t="shared" si="1"/>
-        <v>18795.186000000002</v>
+        <v>17982</v>
       </c>
       <c r="J12" s="9">
         <f>(L5+M5+N5+O5+P5+Q5)*B12</f>
@@ -1651,7 +1771,7 @@
       </c>
       <c r="L12" s="11">
         <f t="shared" si="2"/>
-        <v>48704.813999999998</v>
+        <v>40518</v>
       </c>
       <c r="M12" s="11">
         <f t="shared" si="3"/>
@@ -1663,17 +1783,17 @@
       </c>
       <c r="O12" s="11">
         <f>L12*M12-N12-O11-O10</f>
-        <v>1376.3851199999995</v>
+        <v>721.44</v>
       </c>
       <c r="P12" s="12">
         <f t="shared" si="5"/>
-        <v>22358.552880000003</v>
-      </c>
-      <c r="Q12" s="54">
+        <v>20284.560000000001</v>
+      </c>
+      <c r="Q12" s="30">
         <f>P12+H12+MIN(B5, E5)*K5</f>
-        <v>29131.592880000004</v>
-      </c>
-      <c r="R12" s="55"/>
+        <v>26764.560000000001</v>
+      </c>
+      <c r="R12" s="31"/>
     </row>
     <row r="13" spans="2:21" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="15">
@@ -1681,31 +1801,31 @@
       </c>
       <c r="C13" s="14">
         <f>B5</f>
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="D13" s="14">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>108000</v>
       </c>
       <c r="E13" s="8">
         <f>MIN(C13,D5)*F5</f>
-        <v>2257.6799999999998</v>
+        <v>2160</v>
       </c>
       <c r="F13" s="8">
         <f>MIN(C13,D5)*G5+H5</f>
-        <v>564.41999999999996</v>
+        <v>540</v>
       </c>
       <c r="G13" s="8">
         <f>MIN(C13,D5)*I5</f>
-        <v>56.442</v>
+        <v>54</v>
       </c>
       <c r="H13" s="8">
         <f>MIN(C13,E5)*J5</f>
-        <v>3386.52</v>
+        <v>3240</v>
       </c>
       <c r="I13" s="8">
         <f t="shared" si="1"/>
-        <v>25060.248</v>
+        <v>23976</v>
       </c>
       <c r="J13" s="9">
         <f>(L5+M5+N5+O5+P5+Q5)*B13</f>
@@ -1717,7 +1837,7 @@
       </c>
       <c r="L13" s="11">
         <f t="shared" si="2"/>
-        <v>64939.752000000008</v>
+        <v>54024</v>
       </c>
       <c r="M13" s="11">
         <f t="shared" si="3"/>
@@ -1729,17 +1849,17 @@
       </c>
       <c r="O13" s="11">
         <f>L13*M13-N13-O12-O11-O10</f>
-        <v>1623.4938000000013</v>
+        <v>1350.6000000000004</v>
       </c>
       <c r="P13" s="12">
         <f t="shared" si="5"/>
-        <v>22111.444200000002</v>
-      </c>
-      <c r="Q13" s="54">
+        <v>19655.400000000001</v>
+      </c>
+      <c r="Q13" s="30">
         <f>P13+H13+MIN(B5, E5)*K5</f>
-        <v>28884.484200000003</v>
-      </c>
-      <c r="R13" s="55"/>
+        <v>26135.4</v>
+      </c>
+      <c r="R13" s="31"/>
     </row>
     <row r="14" spans="2:21" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="15">
@@ -1747,31 +1867,31 @@
       </c>
       <c r="C14" s="14">
         <f>B5</f>
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="D14" s="14">
         <f t="shared" si="0"/>
-        <v>150000</v>
+        <v>135000</v>
       </c>
       <c r="E14" s="8">
         <f>MIN(C14,D5)*F5</f>
-        <v>2257.6799999999998</v>
+        <v>2160</v>
       </c>
       <c r="F14" s="8">
         <f>MIN(C14,D5)*G5+H5</f>
-        <v>564.41999999999996</v>
+        <v>540</v>
       </c>
       <c r="G14" s="8">
         <f>MIN(C14,D5)*I5</f>
-        <v>56.442</v>
+        <v>54</v>
       </c>
       <c r="H14" s="8">
         <f>MIN(C14,E5)*J5</f>
-        <v>3386.52</v>
+        <v>3240</v>
       </c>
       <c r="I14" s="8">
         <f t="shared" si="1"/>
-        <v>31325.309999999998</v>
+        <v>29970</v>
       </c>
       <c r="J14" s="9">
         <f>(L5+M5+N5+O5+P5+Q5)*B14</f>
@@ -1783,7 +1903,7 @@
       </c>
       <c r="L14" s="11">
         <f t="shared" si="2"/>
-        <v>81174.69</v>
+        <v>67530</v>
       </c>
       <c r="M14" s="11">
         <f t="shared" si="3"/>
@@ -1795,17 +1915,17 @@
       </c>
       <c r="O14" s="11">
         <f>L14*M14-N14-O13-O12-O11-O10</f>
-        <v>1623.4938000000004</v>
+        <v>1350.5999999999995</v>
       </c>
       <c r="P14" s="12">
         <f t="shared" si="5"/>
-        <v>22111.444200000002</v>
-      </c>
-      <c r="Q14" s="54">
+        <v>19655.400000000001</v>
+      </c>
+      <c r="Q14" s="30">
         <f>P14+H14+MIN(B5, E5)*K5</f>
-        <v>28884.484200000003</v>
-      </c>
-      <c r="R14" s="55"/>
+        <v>26135.4</v>
+      </c>
+      <c r="R14" s="31"/>
     </row>
     <row r="15" spans="2:21" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="15">
@@ -1813,31 +1933,31 @@
       </c>
       <c r="C15" s="14">
         <f>B5</f>
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="D15" s="14">
         <f t="shared" si="0"/>
-        <v>180000</v>
+        <v>162000</v>
       </c>
       <c r="E15" s="8">
         <f>MIN(C15,D5)*F5</f>
-        <v>2257.6799999999998</v>
+        <v>2160</v>
       </c>
       <c r="F15" s="8">
         <f>MIN(C15,D5)*G5+H5</f>
-        <v>564.41999999999996</v>
+        <v>540</v>
       </c>
       <c r="G15" s="8">
         <f>MIN(C15,D5)*I5</f>
-        <v>56.442</v>
+        <v>54</v>
       </c>
       <c r="H15" s="8">
         <f>MIN(C15,E5)*J5</f>
-        <v>3386.52</v>
+        <v>3240</v>
       </c>
       <c r="I15" s="8">
         <f t="shared" si="1"/>
-        <v>37590.372000000003</v>
+        <v>35964</v>
       </c>
       <c r="J15" s="9">
         <f>(L5+M5+N5+O5+P5+Q5)*B15</f>
@@ -1849,7 +1969,7 @@
       </c>
       <c r="L15" s="11">
         <f t="shared" si="2"/>
-        <v>97409.627999999997</v>
+        <v>81036</v>
       </c>
       <c r="M15" s="11">
         <f t="shared" si="3"/>
@@ -1861,17 +1981,17 @@
       </c>
       <c r="O15" s="11">
         <f>L15*M15-N15-O14-O13-O12-O11-O10</f>
-        <v>1623.4937999999986</v>
+        <v>1350.6000000000004</v>
       </c>
       <c r="P15" s="12">
         <f t="shared" si="5"/>
-        <v>22111.444200000002</v>
-      </c>
-      <c r="Q15" s="54">
+        <v>19655.400000000001</v>
+      </c>
+      <c r="Q15" s="30">
         <f>P15+H15+MIN(B5, E5)*K5</f>
-        <v>28884.484200000003</v>
-      </c>
-      <c r="R15" s="55"/>
+        <v>26135.4</v>
+      </c>
+      <c r="R15" s="31"/>
     </row>
     <row r="16" spans="2:21" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="15">
@@ -1879,31 +1999,31 @@
       </c>
       <c r="C16" s="14">
         <f>B5</f>
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="D16" s="14">
         <f t="shared" si="0"/>
-        <v>210000</v>
+        <v>189000</v>
       </c>
       <c r="E16" s="8">
         <f>MIN(C16,D5)*F5</f>
-        <v>2257.6799999999998</v>
+        <v>2160</v>
       </c>
       <c r="F16" s="8">
         <f>MIN(C16,D5)*G5+H5</f>
-        <v>564.41999999999996</v>
+        <v>540</v>
       </c>
       <c r="G16" s="8">
         <f>MIN(C16,D5)*I5</f>
-        <v>56.442</v>
+        <v>54</v>
       </c>
       <c r="H16" s="8">
         <f>MIN(C16,E5)*J5</f>
-        <v>3386.52</v>
+        <v>3240</v>
       </c>
       <c r="I16" s="8">
         <f t="shared" si="1"/>
-        <v>43855.434000000001</v>
+        <v>41958</v>
       </c>
       <c r="J16" s="9">
         <f>(L5+M5+N5+O5+P5+Q5)*B16</f>
@@ -1915,7 +2035,7 @@
       </c>
       <c r="L16" s="11">
         <f t="shared" si="2"/>
-        <v>113644.56599999999</v>
+        <v>94542</v>
       </c>
       <c r="M16" s="11">
         <f t="shared" si="3"/>
@@ -1927,17 +2047,17 @@
       </c>
       <c r="O16" s="11">
         <f>L16*M16-N16-O15-O14-O13-O12-O11-O10</f>
-        <v>1623.4938000000004</v>
+        <v>1350.6000000000004</v>
       </c>
       <c r="P16" s="12">
         <f t="shared" si="5"/>
-        <v>22111.444200000002</v>
-      </c>
-      <c r="Q16" s="54">
+        <v>19655.400000000001</v>
+      </c>
+      <c r="Q16" s="30">
         <f>P16+H16+MIN(B5, E5)*K5</f>
-        <v>28884.484200000003</v>
-      </c>
-      <c r="R16" s="55"/>
+        <v>26135.4</v>
+      </c>
+      <c r="R16" s="31"/>
     </row>
     <row r="17" spans="2:18" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="15">
@@ -1945,31 +2065,31 @@
       </c>
       <c r="C17" s="14">
         <f>B5</f>
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="D17" s="14">
         <f t="shared" si="0"/>
-        <v>240000</v>
+        <v>216000</v>
       </c>
       <c r="E17" s="8">
         <f>MIN(C17,D5)*F5</f>
-        <v>2257.6799999999998</v>
+        <v>2160</v>
       </c>
       <c r="F17" s="8">
         <f>MIN(C17,D5)*G5+H5</f>
-        <v>564.41999999999996</v>
+        <v>540</v>
       </c>
       <c r="G17" s="8">
         <f>MIN(C17,D5)*I5</f>
-        <v>56.442</v>
+        <v>54</v>
       </c>
       <c r="H17" s="8">
         <f>MIN(C17,E5)*J5</f>
-        <v>3386.52</v>
+        <v>3240</v>
       </c>
       <c r="I17" s="8">
         <f t="shared" si="1"/>
-        <v>50120.495999999999</v>
+        <v>47952</v>
       </c>
       <c r="J17" s="9">
         <f>(L5+M5+N5+O5+P5+Q5)*B17</f>
@@ -1981,7 +2101,7 @@
       </c>
       <c r="L17" s="11">
         <f t="shared" si="2"/>
-        <v>129879.50400000002</v>
+        <v>108048</v>
       </c>
       <c r="M17" s="11">
         <f t="shared" si="3"/>
@@ -1993,17 +2113,17 @@
       </c>
       <c r="O17" s="11">
         <f>L17*M17-N17-O16-O15-O14-O13-O12-O11-O10</f>
-        <v>1623.4938000000022</v>
+        <v>1350.6000000000004</v>
       </c>
       <c r="P17" s="12">
         <f t="shared" si="5"/>
-        <v>22111.444199999998</v>
-      </c>
-      <c r="Q17" s="54">
+        <v>19655.400000000001</v>
+      </c>
+      <c r="Q17" s="30">
         <f>P17+H17+MIN(B5, E5)*K5</f>
-        <v>28884.484199999999</v>
-      </c>
-      <c r="R17" s="55"/>
+        <v>26135.4</v>
+      </c>
+      <c r="R17" s="31"/>
     </row>
     <row r="18" spans="2:18" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="15">
@@ -2011,31 +2131,31 @@
       </c>
       <c r="C18" s="14">
         <f>B5</f>
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="D18" s="14">
         <f t="shared" si="0"/>
-        <v>270000</v>
+        <v>243000</v>
       </c>
       <c r="E18" s="8">
         <f>MIN(C18,D5)*F5</f>
-        <v>2257.6799999999998</v>
+        <v>2160</v>
       </c>
       <c r="F18" s="8">
         <f>MIN(C18,D5)*G5+H5</f>
-        <v>564.41999999999996</v>
+        <v>540</v>
       </c>
       <c r="G18" s="8">
         <f>MIN(C18,D5)*I5</f>
-        <v>56.442</v>
+        <v>54</v>
       </c>
       <c r="H18" s="8">
         <f>MIN(C18,E5)*J5</f>
-        <v>3386.52</v>
+        <v>3240</v>
       </c>
       <c r="I18" s="8">
         <f t="shared" si="1"/>
-        <v>56385.557999999997</v>
+        <v>53946</v>
       </c>
       <c r="J18" s="9">
         <f>(L5+M5+N5+O5+P5+Q5)*B18</f>
@@ -2047,29 +2167,29 @@
       </c>
       <c r="L18" s="11">
         <f t="shared" si="2"/>
-        <v>146114.44200000001</v>
+        <v>121554</v>
       </c>
       <c r="M18" s="11">
         <f t="shared" si="3"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="N18" s="11">
         <f t="shared" si="4"/>
-        <v>16920</v>
+        <v>2520</v>
       </c>
       <c r="O18" s="11">
         <f>L18*M18-N18-O17-O16-O15-O14-O13-O12-O11-O10</f>
-        <v>1834.9380000000021</v>
+        <v>1350.6000000000004</v>
       </c>
       <c r="P18" s="12">
         <f t="shared" si="5"/>
-        <v>21900</v>
-      </c>
-      <c r="Q18" s="54">
+        <v>19655.400000000001</v>
+      </c>
+      <c r="Q18" s="30">
         <f>P18+H18+MIN(B5, E5)*K5</f>
-        <v>28673.040000000001</v>
-      </c>
-      <c r="R18" s="55"/>
+        <v>26135.4</v>
+      </c>
+      <c r="R18" s="31"/>
     </row>
     <row r="19" spans="2:18" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="15">
@@ -2077,31 +2197,31 @@
       </c>
       <c r="C19" s="14">
         <f>B5</f>
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="D19" s="14">
         <f t="shared" si="0"/>
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="E19" s="8">
         <f>MIN(C19,D5)*F5</f>
-        <v>2257.6799999999998</v>
+        <v>2160</v>
       </c>
       <c r="F19" s="8">
         <f>MIN(C19,D5)*G5+H5</f>
-        <v>564.41999999999996</v>
+        <v>540</v>
       </c>
       <c r="G19" s="8">
         <f>MIN(C19,D5)*I5</f>
-        <v>56.442</v>
+        <v>54</v>
       </c>
       <c r="H19" s="8">
         <f>MIN(C19,E5)*J5</f>
-        <v>3386.52</v>
+        <v>3240</v>
       </c>
       <c r="I19" s="8">
         <f t="shared" si="1"/>
-        <v>62650.619999999995</v>
+        <v>59940</v>
       </c>
       <c r="J19" s="9">
         <f>(L5+M5+N5+O5+P5+Q5)*B19</f>
@@ -2113,29 +2233,29 @@
       </c>
       <c r="L19" s="11">
         <f t="shared" si="2"/>
-        <v>162349.38</v>
+        <v>135060</v>
       </c>
       <c r="M19" s="11">
         <f t="shared" si="3"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="N19" s="11">
         <f t="shared" si="4"/>
-        <v>16920</v>
+        <v>2520</v>
       </c>
       <c r="O19" s="11">
         <f>L19*M19-N19-O18-O17-O16-O15-O14-O13-O12-O11-O10</f>
-        <v>3246.9876000000004</v>
+        <v>1350.5999999999985</v>
       </c>
       <c r="P19" s="12">
         <f t="shared" si="5"/>
-        <v>20487.950400000002</v>
-      </c>
-      <c r="Q19" s="54">
+        <v>19655.400000000001</v>
+      </c>
+      <c r="Q19" s="30">
         <f>P19+H19+MIN(B5, E5)*K5</f>
-        <v>27260.990400000002</v>
-      </c>
-      <c r="R19" s="55"/>
+        <v>26135.4</v>
+      </c>
+      <c r="R19" s="31"/>
     </row>
     <row r="20" spans="2:18" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="15">
@@ -2143,31 +2263,31 @@
       </c>
       <c r="C20" s="14">
         <f>B5</f>
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="D20" s="14">
         <f t="shared" si="0"/>
-        <v>330000</v>
+        <v>297000</v>
       </c>
       <c r="E20" s="8">
         <f>MIN(C20,D5)*F5</f>
-        <v>2257.6799999999998</v>
+        <v>2160</v>
       </c>
       <c r="F20" s="8">
         <f>MIN(C20,D5)*G5+H5</f>
-        <v>564.41999999999996</v>
+        <v>540</v>
       </c>
       <c r="G20" s="8">
         <f>MIN(C20,D5)*I5</f>
-        <v>56.442</v>
+        <v>54</v>
       </c>
       <c r="H20" s="8">
         <f>MIN(C20,E5)*J5</f>
-        <v>3386.52</v>
+        <v>3240</v>
       </c>
       <c r="I20" s="8">
         <f t="shared" si="1"/>
-        <v>68915.682000000001</v>
+        <v>65934</v>
       </c>
       <c r="J20" s="9">
         <f>(L5+M5+N5+O5+P5+Q5)*B20</f>
@@ -2179,7 +2299,7 @@
       </c>
       <c r="L20" s="11">
         <f t="shared" si="2"/>
-        <v>178584.318</v>
+        <v>148566</v>
       </c>
       <c r="M20" s="11">
         <f t="shared" si="3"/>
@@ -2191,17 +2311,17 @@
       </c>
       <c r="O20" s="11">
         <f>L20*M20-N20-O19-O18-O17-O16-O15-O14-O13-O12-O11-O10</f>
-        <v>3246.9876000000004</v>
+        <v>1807.200000000001</v>
       </c>
       <c r="P20" s="12">
         <f t="shared" si="5"/>
-        <v>20487.950400000002</v>
-      </c>
-      <c r="Q20" s="54">
+        <v>19198.8</v>
+      </c>
+      <c r="Q20" s="30">
         <f>P20+H20+MIN(B5, E5)*K5</f>
-        <v>27260.990400000002</v>
-      </c>
-      <c r="R20" s="55"/>
+        <v>25678.799999999999</v>
+      </c>
+      <c r="R20" s="31"/>
     </row>
     <row r="21" spans="2:18" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="15">
@@ -2209,31 +2329,31 @@
       </c>
       <c r="C21" s="14">
         <f>B5</f>
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="D21" s="14">
         <f t="shared" si="0"/>
-        <v>360000</v>
+        <v>324000</v>
       </c>
       <c r="E21" s="8">
         <f>MIN(C21,D5)*F5</f>
-        <v>2257.6799999999998</v>
+        <v>2160</v>
       </c>
       <c r="F21" s="8">
         <f>MIN(C21,D5)*G5+H5</f>
-        <v>564.41999999999996</v>
+        <v>540</v>
       </c>
       <c r="G21" s="8">
         <f>MIN(C21,D5)*I5</f>
-        <v>56.442</v>
+        <v>54</v>
       </c>
       <c r="H21" s="8">
         <f>MIN(C21,E5)*J5</f>
-        <v>3386.52</v>
+        <v>3240</v>
       </c>
       <c r="I21" s="8">
         <f t="shared" si="1"/>
-        <v>75180.744000000006</v>
+        <v>71928</v>
       </c>
       <c r="J21" s="9">
         <f>(L5+M5+N5+O5+P5+Q5)*B21</f>
@@ -2245,7 +2365,7 @@
       </c>
       <c r="L21" s="11">
         <f t="shared" si="2"/>
-        <v>194819.25599999999</v>
+        <v>162072</v>
       </c>
       <c r="M21" s="11">
         <f t="shared" si="3"/>
@@ -2257,17 +2377,17 @@
       </c>
       <c r="O21" s="11">
         <f>L21*M21-N21-O20-O19-O18-O17-O16-O15-O14-O13-O12-O11-O10</f>
-        <v>3246.9875999999931</v>
+        <v>2701.2000000000012</v>
       </c>
       <c r="P21" s="12">
         <f t="shared" si="5"/>
-        <v>20487.950400000009</v>
-      </c>
-      <c r="Q21" s="54">
+        <v>18304.8</v>
+      </c>
+      <c r="Q21" s="30">
         <f>P21+H21+MIN(B5, E5)*K5</f>
-        <v>27260.99040000001</v>
-      </c>
-      <c r="R21" s="55"/>
+        <v>24784.799999999999</v>
+      </c>
+      <c r="R21" s="31"/>
     </row>
     <row r="22" spans="2:18" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
@@ -2276,7 +2396,7 @@
       <c r="C22" s="14"/>
       <c r="D22" s="14">
         <f>D21+C5</f>
-        <v>465000</v>
+        <v>418500</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
@@ -2289,7 +2409,7 @@
       </c>
       <c r="L22" s="21">
         <f>L21+C5</f>
-        <v>299819.25599999999</v>
+        <v>256572</v>
       </c>
       <c r="M22" s="21">
         <f t="shared" si="3"/>
@@ -2301,17 +2421,17 @@
       </c>
       <c r="O22" s="11">
         <f>L22*M22-N22-O21-O20-O19-O18-O17-O16-O15-O14-O13-O12-O11-O10</f>
-        <v>21000.000000000007</v>
+        <v>18900.000000000011</v>
       </c>
       <c r="P22" s="12">
         <f>C5-O22</f>
-        <v>84000</v>
-      </c>
-      <c r="Q22" s="54">
+        <v>75599.999999999985</v>
+      </c>
+      <c r="Q22" s="30">
         <f>P22</f>
-        <v>84000</v>
-      </c>
-      <c r="R22" s="55"/>
+        <v>75599.999999999985</v>
+      </c>
+      <c r="R22" s="31"/>
     </row>
     <row r="23" spans="2:18" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="16"/>
@@ -2328,27 +2448,27 @@
       </c>
       <c r="L23" s="21">
         <f>C5</f>
-        <v>105000</v>
+        <v>94500</v>
       </c>
       <c r="M23" s="24" t="s">
         <v>42</v>
       </c>
       <c r="N23" s="21">
         <f>P22</f>
-        <v>84000</v>
+        <v>75599.999999999985</v>
       </c>
       <c r="O23" s="26" t="s">
         <v>38</v>
       </c>
       <c r="P23" s="12">
         <f>SUM(P10:P22)</f>
-        <v>346775.40480000002</v>
-      </c>
-      <c r="Q23" s="54">
+        <v>312177.59999999992</v>
+      </c>
+      <c r="Q23" s="30">
         <f>SUM(Q10:Q22)</f>
-        <v>428051.88480000006</v>
-      </c>
-      <c r="R23" s="55"/>
+        <v>389937.6</v>
+      </c>
+      <c r="R23" s="31"/>
     </row>
     <row r="24" spans="2:18" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="17"/>
@@ -2363,276 +2483,374 @@
       <c r="K24" s="25"/>
       <c r="L24" s="25"/>
       <c r="M24" s="25"/>
-      <c r="N24" s="45" t="s">
+      <c r="N24" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="O24" s="45"/>
+      <c r="O24" s="67"/>
       <c r="P24" s="13">
         <f>SUM(P10:P21)</f>
-        <v>262775.40480000002</v>
-      </c>
-      <c r="Q24" s="46">
+        <v>236577.59999999995</v>
+      </c>
+      <c r="Q24" s="68">
         <f>SUM(Q10:Q21)</f>
-        <v>344051.88480000006</v>
-      </c>
-      <c r="R24" s="47"/>
+        <v>314337.59999999998</v>
+      </c>
+      <c r="R24" s="69"/>
     </row>
     <row r="25" spans="2:18" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:18" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="74">
+        <f>P24</f>
+        <v>236577.59999999995</v>
+      </c>
+      <c r="G26" s="74"/>
+      <c r="H26" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="54"/>
+    </row>
+    <row r="27" spans="2:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="57"/>
+    </row>
+    <row r="28" spans="2:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="49"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="57"/>
+    </row>
+    <row r="29" spans="2:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="51">
+        <f>P23</f>
+        <v>312177.59999999992</v>
+      </c>
+      <c r="G29" s="51"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="56"/>
+      <c r="R29" s="57"/>
+    </row>
+    <row r="30" spans="2:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="49"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="56"/>
+      <c r="P30" s="56"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="57"/>
+    </row>
+    <row r="31" spans="2:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="49"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="56"/>
+      <c r="R31" s="57"/>
+    </row>
+    <row r="32" spans="2:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="52">
-        <f>P24</f>
-        <v>262775.40480000002</v>
-      </c>
-      <c r="G26" s="52"/>
-      <c r="H26" s="30" t="s">
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="51">
+        <f>Q23-P23</f>
+        <v>77760.000000000058</v>
+      </c>
+      <c r="G32" s="51"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="57"/>
+    </row>
+    <row r="33" spans="2:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="49"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="56"/>
+      <c r="P33" s="56"/>
+      <c r="Q33" s="56"/>
+      <c r="R33" s="57"/>
+    </row>
+    <row r="34" spans="2:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="49"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="59"/>
+      <c r="N34" s="59"/>
+      <c r="O34" s="59"/>
+      <c r="P34" s="59"/>
+      <c r="Q34" s="59"/>
+      <c r="R34" s="60"/>
+    </row>
+    <row r="35" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="32"/>
-    </row>
-    <row r="27" spans="2:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="27"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="35"/>
-    </row>
-    <row r="28" spans="2:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="27"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="35"/>
-    </row>
-    <row r="29" spans="2:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="29">
-        <f>P23</f>
-        <v>346775.40480000002</v>
-      </c>
-      <c r="G29" s="29"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="34"/>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="35"/>
-    </row>
-    <row r="30" spans="2:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="27"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="34"/>
-      <c r="R30" s="35"/>
-    </row>
-    <row r="31" spans="2:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="35"/>
-    </row>
-    <row r="32" spans="2:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="27" t="s">
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="88">
+        <f>F29+F32</f>
+        <v>389937.6</v>
+      </c>
+      <c r="G35" s="76"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="29"/>
+    </row>
+    <row r="36" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="82"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="89"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="29"/>
+    </row>
+    <row r="37" spans="2:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="85"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="86"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="90"/>
+      <c r="G37" s="78"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="28"/>
+      <c r="R37" s="29"/>
+    </row>
+    <row r="38" spans="2:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="51">
+        <f>SUM(O10:O22)</f>
+        <v>34394.400000000009</v>
+      </c>
+      <c r="G38" s="51"/>
+      <c r="H38" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="29">
-        <f>Q23-P23</f>
-        <v>81276.48000000004</v>
-      </c>
-      <c r="G32" s="29"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="35"/>
-    </row>
-    <row r="33" spans="2:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="27"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="35"/>
-    </row>
-    <row r="34" spans="2:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="27"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="38"/>
-    </row>
-    <row r="35" spans="2:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="29">
-        <f>SUM(O10:O22)</f>
-        <v>43043.851200000005</v>
-      </c>
-      <c r="G35" s="29"/>
-      <c r="H35" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40"/>
-      <c r="N35" s="40"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="41"/>
-    </row>
-    <row r="36" spans="2:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="27"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="34"/>
-      <c r="P36" s="34"/>
-      <c r="Q36" s="34"/>
-      <c r="R36" s="35"/>
-    </row>
-    <row r="37" spans="2:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="50"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="43"/>
-      <c r="P37" s="43"/>
-      <c r="Q37" s="43"/>
-      <c r="R37" s="44"/>
-    </row>
-    <row r="38" spans="2:18" ht="21" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="62"/>
+      <c r="K38" s="62"/>
+      <c r="L38" s="62"/>
+      <c r="M38" s="62"/>
+      <c r="N38" s="62"/>
+      <c r="O38" s="62"/>
+      <c r="P38" s="62"/>
+      <c r="Q38" s="62"/>
+      <c r="R38" s="63"/>
+    </row>
+    <row r="39" spans="2:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="49"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="56"/>
+      <c r="N39" s="56"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="56"/>
+      <c r="Q39" s="56"/>
+      <c r="R39" s="57"/>
+    </row>
+    <row r="40" spans="2:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="72"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="64"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="65"/>
+      <c r="K40" s="65"/>
+      <c r="L40" s="65"/>
+      <c r="M40" s="65"/>
+      <c r="N40" s="65"/>
+      <c r="O40" s="65"/>
+      <c r="P40" s="65"/>
+      <c r="Q40" s="65"/>
+      <c r="R40" s="66"/>
+    </row>
+    <row r="41" spans="2:18" ht="21" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="52">
+    <mergeCell ref="B32:E34"/>
+    <mergeCell ref="F32:G34"/>
+    <mergeCell ref="H26:R34"/>
+    <mergeCell ref="H38:R40"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="B26:E28"/>
+    <mergeCell ref="B29:E31"/>
+    <mergeCell ref="B38:E40"/>
+    <mergeCell ref="F26:G28"/>
+    <mergeCell ref="F29:G31"/>
+    <mergeCell ref="F38:G40"/>
+    <mergeCell ref="B35:E37"/>
+    <mergeCell ref="F35:G37"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="Q8:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
     <mergeCell ref="Q11:R11"/>
     <mergeCell ref="B7:R7"/>
     <mergeCell ref="B3:B4"/>
@@ -2649,40 +2867,6 @@
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="P8:P9"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B2:R2"/>
-    <mergeCell ref="Q8:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="B32:E34"/>
-    <mergeCell ref="F32:G34"/>
-    <mergeCell ref="H26:R34"/>
-    <mergeCell ref="H35:R37"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="B26:E28"/>
-    <mergeCell ref="B29:E31"/>
-    <mergeCell ref="B35:E37"/>
-    <mergeCell ref="F26:G28"/>
-    <mergeCell ref="F29:G31"/>
-    <mergeCell ref="F35:G37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MakeMoreMoney_V1.xlsx
+++ b/MakeMoreMoney_V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lzbqrr\Desktop\MakeMoreMoney\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0A625E-8B25-44BB-9A72-06479A3E04EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BECBAEC-994F-4A96-9A4A-B965D57E5CF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17535" xr2:uid="{83293AED-B13B-44AE-BE71-2450F74312A8}"/>
   </bookViews>
@@ -712,7 +712,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -794,6 +794,24 @@
     <xf numFmtId="176" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -803,15 +821,144 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -819,171 +966,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1303,7 +1294,7 @@
   <dimension ref="B1:U41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35:G37"/>
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -1331,58 +1322,58 @@
   <sheetData>
     <row r="1" spans="2:21" ht="21" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="43"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="75"/>
     </row>
     <row r="3" spans="2:21" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36" t="s">
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36" t="s">
+      <c r="K3" s="72"/>
+      <c r="L3" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="41" t="s">
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="71" t="s">
         <v>36</v>
       </c>
       <c r="S3" s="2"/>
@@ -1390,10 +1381,10 @@
       <c r="U3" s="2"/>
     </row>
     <row r="4" spans="2:21" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="35"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
       <c r="F4" s="3" t="s">
         <v>17</v>
       </c>
@@ -1430,7 +1421,7 @@
       <c r="Q4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="41"/>
+      <c r="R4" s="71"/>
     </row>
     <row r="5" spans="2:21" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
@@ -1505,77 +1496,77 @@
       <c r="R6" s="22"/>
     </row>
     <row r="7" spans="2:21" ht="42.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="34"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="82"/>
+      <c r="R7" s="83"/>
     </row>
     <row r="8" spans="2:21" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40" t="s">
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="40" t="s">
+      <c r="I8" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="47" t="s">
+      <c r="J8" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="48" t="s">
+      <c r="K8" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="38" t="s">
+      <c r="L8" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="M8" s="37" t="s">
+      <c r="M8" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="37" t="s">
+      <c r="N8" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="38" t="s">
+      <c r="O8" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="P8" s="30" t="s">
+      <c r="P8" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="Q8" s="44" t="s">
+      <c r="Q8" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="45"/>
+      <c r="R8" s="77"/>
     </row>
     <row r="9" spans="2:21" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="46"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
       <c r="E9" s="8" t="s">
         <v>0</v>
       </c>
@@ -1585,17 +1576,17 @@
       <c r="G9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="45"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="77"/>
     </row>
     <row r="10" spans="2:21" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="15">
@@ -1657,11 +1648,11 @@
         <f>C10-E10-F10-G10-H10-O10</f>
         <v>20600.82</v>
       </c>
-      <c r="Q10" s="30">
+      <c r="Q10" s="69">
         <f>P10+H10+MIN(B5, E5)*K5</f>
         <v>27080.82</v>
       </c>
-      <c r="R10" s="31"/>
+      <c r="R10" s="70"/>
     </row>
     <row r="11" spans="2:21" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="15">
@@ -1723,11 +1714,11 @@
         <f t="shared" ref="P11:P21" si="5">C11-E11-F11-G11-H11-O11</f>
         <v>20600.82</v>
       </c>
-      <c r="Q11" s="30">
+      <c r="Q11" s="69">
         <f>P11+H11+MIN(B5, E5)*K5</f>
         <v>27080.82</v>
       </c>
-      <c r="R11" s="31"/>
+      <c r="R11" s="70"/>
     </row>
     <row r="12" spans="2:21" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="15">
@@ -1789,11 +1780,11 @@
         <f t="shared" si="5"/>
         <v>20284.560000000001</v>
       </c>
-      <c r="Q12" s="30">
+      <c r="Q12" s="69">
         <f>P12+H12+MIN(B5, E5)*K5</f>
         <v>26764.560000000001</v>
       </c>
-      <c r="R12" s="31"/>
+      <c r="R12" s="70"/>
     </row>
     <row r="13" spans="2:21" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="15">
@@ -1855,11 +1846,11 @@
         <f t="shared" si="5"/>
         <v>19655.400000000001</v>
       </c>
-      <c r="Q13" s="30">
+      <c r="Q13" s="69">
         <f>P13+H13+MIN(B5, E5)*K5</f>
         <v>26135.4</v>
       </c>
-      <c r="R13" s="31"/>
+      <c r="R13" s="70"/>
     </row>
     <row r="14" spans="2:21" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="15">
@@ -1921,11 +1912,11 @@
         <f t="shared" si="5"/>
         <v>19655.400000000001</v>
       </c>
-      <c r="Q14" s="30">
+      <c r="Q14" s="69">
         <f>P14+H14+MIN(B5, E5)*K5</f>
         <v>26135.4</v>
       </c>
-      <c r="R14" s="31"/>
+      <c r="R14" s="70"/>
     </row>
     <row r="15" spans="2:21" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="15">
@@ -1987,11 +1978,11 @@
         <f t="shared" si="5"/>
         <v>19655.400000000001</v>
       </c>
-      <c r="Q15" s="30">
+      <c r="Q15" s="69">
         <f>P15+H15+MIN(B5, E5)*K5</f>
         <v>26135.4</v>
       </c>
-      <c r="R15" s="31"/>
+      <c r="R15" s="70"/>
     </row>
     <row r="16" spans="2:21" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="15">
@@ -2053,11 +2044,11 @@
         <f t="shared" si="5"/>
         <v>19655.400000000001</v>
       </c>
-      <c r="Q16" s="30">
+      <c r="Q16" s="69">
         <f>P16+H16+MIN(B5, E5)*K5</f>
         <v>26135.4</v>
       </c>
-      <c r="R16" s="31"/>
+      <c r="R16" s="70"/>
     </row>
     <row r="17" spans="2:18" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="15">
@@ -2119,11 +2110,11 @@
         <f t="shared" si="5"/>
         <v>19655.400000000001</v>
       </c>
-      <c r="Q17" s="30">
+      <c r="Q17" s="69">
         <f>P17+H17+MIN(B5, E5)*K5</f>
         <v>26135.4</v>
       </c>
-      <c r="R17" s="31"/>
+      <c r="R17" s="70"/>
     </row>
     <row r="18" spans="2:18" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="15">
@@ -2185,11 +2176,11 @@
         <f t="shared" si="5"/>
         <v>19655.400000000001</v>
       </c>
-      <c r="Q18" s="30">
+      <c r="Q18" s="69">
         <f>P18+H18+MIN(B5, E5)*K5</f>
         <v>26135.4</v>
       </c>
-      <c r="R18" s="31"/>
+      <c r="R18" s="70"/>
     </row>
     <row r="19" spans="2:18" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="15">
@@ -2251,11 +2242,11 @@
         <f t="shared" si="5"/>
         <v>19655.400000000001</v>
       </c>
-      <c r="Q19" s="30">
+      <c r="Q19" s="69">
         <f>P19+H19+MIN(B5, E5)*K5</f>
         <v>26135.4</v>
       </c>
-      <c r="R19" s="31"/>
+      <c r="R19" s="70"/>
     </row>
     <row r="20" spans="2:18" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="15">
@@ -2317,11 +2308,11 @@
         <f t="shared" si="5"/>
         <v>19198.8</v>
       </c>
-      <c r="Q20" s="30">
+      <c r="Q20" s="69">
         <f>P20+H20+MIN(B5, E5)*K5</f>
         <v>25678.799999999999</v>
       </c>
-      <c r="R20" s="31"/>
+      <c r="R20" s="70"/>
     </row>
     <row r="21" spans="2:18" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="15">
@@ -2383,11 +2374,11 @@
         <f t="shared" si="5"/>
         <v>18304.8</v>
       </c>
-      <c r="Q21" s="30">
+      <c r="Q21" s="69">
         <f>P21+H21+MIN(B5, E5)*K5</f>
         <v>24784.799999999999</v>
       </c>
-      <c r="R21" s="31"/>
+      <c r="R21" s="70"/>
     </row>
     <row r="22" spans="2:18" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
@@ -2427,11 +2418,11 @@
         <f>C5-O22</f>
         <v>75599.999999999985</v>
       </c>
-      <c r="Q22" s="30">
+      <c r="Q22" s="69">
         <f>P22</f>
         <v>75599.999999999985</v>
       </c>
-      <c r="R22" s="31"/>
+      <c r="R22" s="70"/>
     </row>
     <row r="23" spans="2:18" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="16"/>
@@ -2464,11 +2455,11 @@
         <f>SUM(P10:P22)</f>
         <v>312177.59999999992</v>
       </c>
-      <c r="Q23" s="30">
+      <c r="Q23" s="69">
         <f>SUM(Q10:Q22)</f>
         <v>389937.6</v>
       </c>
-      <c r="R23" s="31"/>
+      <c r="R23" s="70"/>
     </row>
     <row r="24" spans="2:18" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="17"/>
@@ -2483,374 +2474,338 @@
       <c r="K24" s="25"/>
       <c r="L24" s="25"/>
       <c r="M24" s="25"/>
-      <c r="N24" s="67" t="s">
+      <c r="N24" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="O24" s="67"/>
+      <c r="O24" s="45"/>
       <c r="P24" s="13">
         <f>SUM(P10:P21)</f>
         <v>236577.59999999995</v>
       </c>
-      <c r="Q24" s="68">
+      <c r="Q24" s="46">
         <f>SUM(Q10:Q21)</f>
         <v>314337.59999999998</v>
       </c>
-      <c r="R24" s="69"/>
+      <c r="R24" s="47"/>
     </row>
     <row r="25" spans="2:18" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:18" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="70" t="s">
+      <c r="B26" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="74">
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="52">
         <f>P24</f>
         <v>236577.59999999995</v>
       </c>
-      <c r="G26" s="74"/>
-      <c r="H26" s="52" t="s">
+      <c r="G26" s="52"/>
+      <c r="H26" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="54"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="32"/>
     </row>
     <row r="27" spans="2:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="49"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="56"/>
-      <c r="O27" s="56"/>
-      <c r="P27" s="56"/>
-      <c r="Q27" s="56"/>
-      <c r="R27" s="57"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="35"/>
     </row>
     <row r="28" spans="2:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="49"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="56"/>
-      <c r="P28" s="56"/>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="57"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="35"/>
     </row>
     <row r="29" spans="2:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="51">
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="29">
         <f>P23</f>
         <v>312177.59999999992</v>
       </c>
-      <c r="G29" s="51"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="56"/>
-      <c r="O29" s="56"/>
-      <c r="P29" s="56"/>
-      <c r="Q29" s="56"/>
-      <c r="R29" s="57"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="35"/>
     </row>
     <row r="30" spans="2:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="49"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="56"/>
-      <c r="O30" s="56"/>
-      <c r="P30" s="56"/>
-      <c r="Q30" s="56"/>
-      <c r="R30" s="57"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="35"/>
     </row>
     <row r="31" spans="2:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="49"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="56"/>
-      <c r="N31" s="56"/>
-      <c r="O31" s="56"/>
-      <c r="P31" s="56"/>
-      <c r="Q31" s="56"/>
-      <c r="R31" s="57"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="35"/>
     </row>
     <row r="32" spans="2:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="51">
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="29">
         <f>Q23-P23</f>
         <v>77760.000000000058</v>
       </c>
-      <c r="G32" s="51"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="56"/>
-      <c r="O32" s="56"/>
-      <c r="P32" s="56"/>
-      <c r="Q32" s="56"/>
-      <c r="R32" s="57"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="35"/>
     </row>
     <row r="33" spans="2:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="49"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="56"/>
-      <c r="N33" s="56"/>
-      <c r="O33" s="56"/>
-      <c r="P33" s="56"/>
-      <c r="Q33" s="56"/>
-      <c r="R33" s="57"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="35"/>
     </row>
     <row r="34" spans="2:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="49"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="59"/>
-      <c r="O34" s="59"/>
-      <c r="P34" s="59"/>
-      <c r="Q34" s="59"/>
-      <c r="R34" s="60"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="35"/>
     </row>
     <row r="35" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="79" t="s">
+      <c r="B35" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="80"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="88">
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="63">
         <f>F29+F32</f>
         <v>389937.6</v>
       </c>
-      <c r="G35" s="76"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="28"/>
-      <c r="R35" s="29"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="35"/>
     </row>
     <row r="36" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="82"/>
-      <c r="C36" s="83"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="89"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28"/>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="28"/>
-      <c r="R36" s="29"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="35"/>
     </row>
     <row r="37" spans="2:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="85"/>
-      <c r="C37" s="86"/>
-      <c r="D37" s="86"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="90"/>
-      <c r="G37" s="78"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="28"/>
-      <c r="O37" s="28"/>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="28"/>
-      <c r="R37" s="29"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="38"/>
     </row>
     <row r="38" spans="2:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="49" t="s">
+      <c r="B38" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="51">
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="29">
         <f>SUM(O10:O22)</f>
         <v>34394.400000000009</v>
       </c>
-      <c r="G38" s="51"/>
-      <c r="H38" s="61" t="s">
+      <c r="G38" s="29"/>
+      <c r="H38" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="I38" s="62"/>
-      <c r="J38" s="62"/>
-      <c r="K38" s="62"/>
-      <c r="L38" s="62"/>
-      <c r="M38" s="62"/>
-      <c r="N38" s="62"/>
-      <c r="O38" s="62"/>
-      <c r="P38" s="62"/>
-      <c r="Q38" s="62"/>
-      <c r="R38" s="63"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="41"/>
     </row>
     <row r="39" spans="2:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="49"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="56"/>
-      <c r="K39" s="56"/>
-      <c r="L39" s="56"/>
-      <c r="M39" s="56"/>
-      <c r="N39" s="56"/>
-      <c r="O39" s="56"/>
-      <c r="P39" s="56"/>
-      <c r="Q39" s="56"/>
-      <c r="R39" s="57"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="35"/>
     </row>
     <row r="40" spans="2:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="72"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="64"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="65"/>
-      <c r="K40" s="65"/>
-      <c r="L40" s="65"/>
-      <c r="M40" s="65"/>
-      <c r="N40" s="65"/>
-      <c r="O40" s="65"/>
-      <c r="P40" s="65"/>
-      <c r="Q40" s="65"/>
-      <c r="R40" s="66"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
+      <c r="N40" s="43"/>
+      <c r="O40" s="43"/>
+      <c r="P40" s="43"/>
+      <c r="Q40" s="43"/>
+      <c r="R40" s="44"/>
     </row>
     <row r="41" spans="2:18" ht="21" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="B32:E34"/>
-    <mergeCell ref="F32:G34"/>
-    <mergeCell ref="H26:R34"/>
-    <mergeCell ref="H38:R40"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="B26:E28"/>
-    <mergeCell ref="B29:E31"/>
-    <mergeCell ref="B38:E40"/>
-    <mergeCell ref="F26:G28"/>
-    <mergeCell ref="F29:G31"/>
-    <mergeCell ref="F38:G40"/>
-    <mergeCell ref="B35:E37"/>
-    <mergeCell ref="F35:G37"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B2:R2"/>
-    <mergeCell ref="Q8:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
     <mergeCell ref="Q11:R11"/>
     <mergeCell ref="B7:R7"/>
     <mergeCell ref="B3:B4"/>
@@ -2867,6 +2822,42 @@
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="P8:P9"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="Q8:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="B32:E34"/>
+    <mergeCell ref="F32:G34"/>
+    <mergeCell ref="H38:R40"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="B26:E28"/>
+    <mergeCell ref="B29:E31"/>
+    <mergeCell ref="B38:E40"/>
+    <mergeCell ref="F26:G28"/>
+    <mergeCell ref="F29:G31"/>
+    <mergeCell ref="F38:G40"/>
+    <mergeCell ref="B35:E37"/>
+    <mergeCell ref="F35:G37"/>
+    <mergeCell ref="H26:R37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
